--- a/assets/disciplinas/LOM3099.xlsx
+++ b/assets/disciplinas/LOM3099.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-3</t>
+    <t>EM-2</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOM3099.xlsx
+++ b/assets/disciplinas/LOM3099.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2020</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -91,7 +91,7 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Estática de Partículas. Estática de Corpos Rígidos.Análise de Estruturas.</t>
+    <t>Estática de Partículas. Estática de Corpos Rígidos. Equilíbrio de Corpos Rígidos. Análise de Estruturas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -112,25 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>Para compor a Nota no Semestre (NS) serão feitas duas avaliações (P1 e P2).</t>
+    <t>Os alunos serão avaliados continuamente a qual serão considerados: provas escritas, exercícios propostos e seminários</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>NS = NP1 + NP2. NP1: questões da P1 valendo até 4p. no total; NP2: questões da P2 valendo até 6p. no total. Serão considerados aprovados os alunos que obtiverem: NS maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem: NS menor que 3,0. Para os alunos em que NS é maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
+    <t>Para compor a Nota Final (NF) serão consideradas as avaliações de Provas Escritas (P1 e P2) e Exercícios Propostos e Seminários (T) em que:NF = (P1 + P2 + T)/3.  Serão considerados aprovados os alunos que obtiverem: NF maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem: NS menor que 3,0 Para os alunos em que NS é maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A prova de Recuperação (R) irá compor a nota final (NF) da seguinte forma: NF = (R + NS)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
+    <t>: A prova de Recuperação (R) irá compor a nota final de recuperação (NR) da seguinte forma: NR = (R + NF)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>1. F.P. BEER, E.R. JOHNSTON, J.T. DeWOLF, D.MAZUREK. Estática e Mecânica dos Materiais. São Paulo: McGraw Hill, 2013, 728p. 2. F.P. BEER, E.R. JOHNSTON, E. RUSSEL. Mecânica vetorial para engenheiros: estática./ São Paulo: McGraw Hill. 9a Ed., 2012, 626p. 3. HIBBELER, R.C. Mecânica para engenharia vol.1: estática. São Paulo: Pearson Prentice Hall, 12a Ed., 2011.4. MERIAM, J.L. KRAIGE, L.G. Mecânica para engenharia – Estática. Grupo GEN Editora LTC, 6a Ed., 2009, 364p.5. RUIZ, C.C.de La P. Fundamentos de mecânica para engenharia – Estática. Grupo GEN Editora LTC, 2017, 306p.</t>
+    <t>1. F.P. BEER, E.R. JOHNSTON, J.T. DeWOLF, D.MAZUREK. Estática e Mecânica dos Materiais. São Paulo: McGraw Hill, 2013, 728p.2. F.P. BEER, E.R. JOHNSTON, E. RUSSEL. Mecânica vetorial para engenheiros: Estática. São Paulo: McGraw Hill. 9a Ed., 2012, 626p. 3. HIBBELER, R.C. Mecânica para engenharia vol.1: estática. São Paulo: Pearson Prentice Hall, 12a Ed., 2011.4. MERIAM, J.L. KRAIGE, L.G. Mecânica para engenharia – Estática. Grupo GEN Editora LTC, 6a Ed., 2009, 364p. 5. RUIZ, C.C.de La P. Fundamentos de mecânica para engenharia – Estática. Grupo GEN Editora LTC, 2017, 306p.</t>
   </si>
   <si>
     <t>Requisitos:</t>

--- a/assets/disciplinas/LOM3099.xlsx
+++ b/assets/disciplinas/LOM3099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar ao aluno um conhecimento básico da mecânica dos corpos rígidos com ênfase na estática. Fornecer conhecimentos necessários para cálculo de reações de apoios e de esforços internos em estruturas isostáticas.</t>
+    <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,58 +79,46 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
   </si>
   <si>
     <t>5840793 - Sérgio Schneider</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>7797767 - Viktor Pastoukhov</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Estática de Partículas. Estática de Corpos Rígidos. Equilíbrio de Corpos Rígidos. Análise de Estruturas.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Mecânica e suas áreas: Corpos rígidos e corpos deformáveis (sólidos). Terminologia e metodologia básica. Estática de Partículas: Vetores, resultante de várias forças concorrentes, equilíbrio de uma partícula. Estática de Corpos Rígidos: Conceito de corpo rígido. Momento de uma força com relação a um ponto, sistemas equivalentes de forças, momento e binário. Apoios e vínculos. Diagrama de corpo livre. Reações de apoios e conexões para uma estrutura 2D. Equilíbrio de um corpo rígido em 2D. Reações estaticamente indeterminadas e vínculos parciais. Equilíbrio de um corpo rígido em 3D. Análise de Estruturas: análise do equilíbrio de estruturas, ação de múltiplas forças, forças internas, terceira Lei de Newton. Treliças: método dos nós, método das seções. Estruturas e Máquinas: transmissão e modificação de forças. Esforços internos em pórticos, vigas, cabos e eixos de transmissão.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Os alunos serão avaliados continuamente a qual serão considerados: provas escritas, exercícios propostos e seminários</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Para compor a Nota Final (NF) serão consideradas as avaliações de Provas Escritas (P1 e P2) e Exercícios Propostos e Seminários (T) em que:NF = (P1 + P2 + T)/3.  Serão considerados aprovados os alunos que obtiverem: NF maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem: NS menor que 3,0 Para os alunos em que NS é maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>: A prova de Recuperação (R) irá compor a nota final de recuperação (NR) da seguinte forma: NR = (R + NF)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. F.P. BEER, E.R. JOHNSTON, J.T. DeWOLF, D.MAZUREK. Estática e Mecânica dos Materiais. São Paulo: McGraw Hill, 2013, 728p.2. F.P. BEER, E.R. JOHNSTON, E. RUSSEL. Mecânica vetorial para engenheiros: Estática. São Paulo: McGraw Hill. 9a Ed., 2012, 626p. 3. HIBBELER, R.C. Mecânica para engenharia vol.1: estática. São Paulo: Pearson Prentice Hall, 12a Ed., 2011.4. MERIAM, J.L. KRAIGE, L.G. Mecânica para engenharia – Estática. Grupo GEN Editora LTC, 6a Ed., 2009, 364p. 5. RUIZ, C.C.de La P. Fundamentos de mecânica para engenharia – Estática. Grupo GEN Editora LTC, 2017, 306p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -493,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,47 +606,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -669,71 +654,50 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="120" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3099.xlsx
+++ b/assets/disciplinas/LOM3099.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,25 +70,37 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar ao aluno um conhecimento básico da mecânica dos corpos rígidos com ênfase na estática. Fornecer conhecimentos necessários para cálculo de reações de apoios e de esforços internos em estruturas isostáticas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>471420 - Carlos Antonio Reis Pereira Baptista</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>5840793 - Sérgio Schneider</t>
+  </si>
+  <si>
+    <t>7797767 - Viktor Pastoukhov</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Estática de Partículas. Estática de Corpos Rígidos. Equilíbrio de Corpos Rígidos. Análise de Estruturas.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>5840793 - Sérgio Schneider</t>
+    <t>Mecânica e suas áreas: Corpos rígidos e corpos deformáveis (sólidos). Terminologia e metodologia básica. Estática de Partículas: Vetores, resultante de várias forças concorrentes, equilíbrio de uma partícula. Estática de Corpos Rígidos: Conceito de corpo rígido. Momento de uma força com relação a um ponto, sistemas equivalentes de forças, momento e binário. Apoios e vínculos. Diagrama de corpo livre. Reações de apoios e conexões para uma estrutura 2D. Equilíbrio de um corpo rígido em 2D. Reações estaticamente indeterminadas e vínculos parciais. Equilíbrio de um corpo rígido em 3D. Análise de Estruturas: análise do equilíbrio de estruturas, ação de múltiplas forças, forças internas, terceira Lei de Newton. Treliças: método dos nós, método das seções. Estruturas e Máquinas: transmissão e modificação de forças. Esforços internos em pórticos, vigas, cabos e eixos de transmissão.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -100,25 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>7797767 - Viktor Pastoukhov</t>
+    <t>Os alunos serão avaliados continuamente a qual serão considerados: provas escritas, exercícios propostos e seminários</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Os alunos serão avaliados continuamente a qual serão considerados: provas escritas, exercícios propostos e seminários</t>
+    <t>Para compor a Nota Final (NF) serão consideradas as avaliações de Provas Escritas (P1 e P2) e Exercícios Propostos e Seminários (T) em que:NF = (P1 + P2 + T)/3.  Serão considerados aprovados os alunos que obtiverem: NF maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem: NS menor que 3,0 Para os alunos em que NS é maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Para compor a Nota Final (NF) serão consideradas as avaliações de Provas Escritas (P1 e P2) e Exercícios Propostos e Seminários (T) em que:NF = (P1 + P2 + T)/3.  Serão considerados aprovados os alunos que obtiverem: NF maior ou igual a 5,0. Serão considerados reprovados os alunos que obtiverem: NS menor que 3,0 Para os alunos em que NS é maior ou igual a 3,0 e menor que 5,0 será dada uma prova de recuperação (R).</t>
+    <t>: A prova de Recuperação (R) irá compor a nota final de recuperação (NR) da seguinte forma: NR = (R + NF)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>: A prova de Recuperação (R) irá compor a nota final de recuperação (NR) da seguinte forma: NR = (R + NF)/2. Serão considerados aprovados os alunos que obtiverem NF maior ou igual a 5,0.</t>
+    <t>1. F.P. BEER, E.R. JOHNSTON, J.T. DeWOLF, D.MAZUREK. Estática e Mecânica dos Materiais. São Paulo: McGraw Hill, 2013, 728p.2. F.P. BEER, E.R. JOHNSTON, E. RUSSEL. Mecânica vetorial para engenheiros: Estática. São Paulo: McGraw Hill. 9a Ed., 2012, 626p. 3. HIBBELER, R.C. Mecânica para engenharia vol.1: estática. São Paulo: Pearson Prentice Hall, 12a Ed., 2011.4. MERIAM, J.L. KRAIGE, L.G. Mecânica para engenharia – Estática. Grupo GEN Editora LTC, 6a Ed., 2009, 364p. 5. RUIZ, C.C.de La P. Fundamentos de mecânica para engenharia – Estática. Grupo GEN Editora LTC, 2017, 306p.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -481,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -606,44 +618,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -654,50 +669,71 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3" ht="120" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
